--- a/tc-cocoon.xlsx
+++ b/tc-cocoon.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\Auto Test\wdio_prestashop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\AutoTest\wdio_cocoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7700B3E-4CCD-4FAA-93E9-356555385BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EB1F1-2C5D-4E66-822D-64658F76B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4D37612-19DC-43AE-A212-63B08F054381}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F4D37612-19DC-43AE-A212-63B08F054381}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="search" sheetId="2" r:id="rId2"/>
     <sheet name="cart" sheetId="3" r:id="rId3"/>
-    <sheet name="order" sheetId="4" r:id="rId4"/>
+    <sheet name="contact" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
   <si>
     <t>Date of create:</t>
   </si>
@@ -347,19 +347,6 @@
     <t>The product is removed from the cart and the cart is updated.</t>
   </si>
   <si>
-    <t>step 1: login to account
-step 2: access to cart page
-step 3: click button "thanh toán"
-step 4: navigation to Check out page
-step 5: enter full contact information 
-step 6: choose on option in payment method
-step 7: Enter promo code or gift card
-step 8: click to button "Đặt hàng"</t>
-  </si>
-  <si>
-    <t>A message "order successful" appears</t>
-  </si>
-  <si>
     <t>Verify login failed with valid phone and wrong password</t>
   </si>
   <si>
@@ -380,18 +367,6 @@
   </si>
   <si>
     <t>TC_008</t>
-  </si>
-  <si>
-    <t>Order without information</t>
-  </si>
-  <si>
-    <t>step 1: access to page cart
-step 2: click button "thanh toán"
-step 3: naviagation to check out page
-step 4: click to button "Đặt hàng"</t>
-  </si>
-  <si>
-    <t>a message"vui lòng nhập thông tin giao hàng" appears</t>
   </si>
   <si>
     <t>Check the "Forgot Password" function</t>
@@ -413,48 +388,6 @@
 giỏ của bạn" and a button "tiếp tục mua sắm"</t>
   </si>
   <si>
-    <t>email: hanh@gmail.com
-full name: Tran Thi Thuy Hang
-phone number: 0917697589
-city/province: Đà Nẵng
-district: Ngũ Hành Sơn
-ward: Hòa hải
-strees: 43 Huỳnh Văn Nghệ</t>
-  </si>
-  <si>
-    <t>Check out the products in the shopping cart that are cleared after purchase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step 1: access to the cart page
-step 2: click button  "thanh toán"  
-step 3: fill in the information
-step 4: click button " đặt hàng"
-step 5: back to the cart page </t>
-  </si>
-  <si>
-    <t>Purchased products in cart disappeared</t>
-  </si>
-  <si>
-    <t>Order with correct information while logged in</t>
-  </si>
-  <si>
-    <t>Account is logged in</t>
-  </si>
-  <si>
-    <t>full name: Tran Thi Thuy Hang
-phone number: 0917697589
-city/province: Đà Nẵng
-district: Ngũ Hành Sơn
-ward: Hòa hải
-strees: 43 Huỳnh Văn Nghệ</t>
-  </si>
-  <si>
-    <t>Order with correct information when not logged in</t>
-  </si>
-  <si>
-    <t>Account not logged in</t>
-  </si>
-  <si>
     <t>Check if the password field changes from type="password" to type="text" to display the password.</t>
   </si>
   <si>
@@ -542,6 +475,63 @@
   </si>
   <si>
     <t>The system keep a single record of the product in the cart ,but increase the quantity  more expect.</t>
+  </si>
+  <si>
+    <t>Verify contact successfully with valid information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step 1: Access the homepage of the website.
+step 2: Click on the "Liên hệ" button.
+step 3: Enter the valid information
+step 5:Click the "Gửi cocoon" button.
+</t>
+  </si>
+  <si>
+    <t>name: ThuyHai
+phone: 0958689486
+email: tranthuyhai@gmail.com
+question: Gia cua sua rua mat</t>
+  </si>
+  <si>
+    <t>display dialog notice contact success</t>
+  </si>
+  <si>
+    <t>Verify contact failed with  name emty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step 1: Access the homepage of the website.
+step 2: Click on the "Liên hệ" button.
+step 3: Enter the  information with name empty
+step 5:Click the "Gửi cocoon" button.
+</t>
+  </si>
+  <si>
+    <t>name: 
+phone: 0958689486
+email: tranthuyhai@gmail.com
+question: Gia cua sua rua mat</t>
+  </si>
+  <si>
+    <t>display message notice that "Vui lòng nhập tên của bạn!"</t>
+  </si>
+  <si>
+    <t>Verify contact failed with  name too short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step 1: Access the homepage of the website.
+step 2: Click on the "Liên hệ" button.
+step 3: Enter the  information with name too short
+step 5:Click the "Gửi cocoon" button.
+</t>
+  </si>
+  <si>
+    <t>name: ha
+phone: 0958689486
+email: tranthuyhai@gmail.com
+question: Gia cua sua rua mat</t>
+  </si>
+  <si>
+    <t>display message notice that"Tên bạn nhập quá ngắn!"</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0010E40-CEB2-463A-803A-276EEB881255}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1076,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1136,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>8</v>
@@ -1145,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1185,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -1214,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
@@ -1316,10 +1306,10 @@
         <v>42</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I12" s="9">
         <v>45588</v>
@@ -1339,13 +1329,13 @@
         <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>20</v>
@@ -1356,25 +1346,25 @@
     </row>
     <row r="14" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>20</v>
@@ -1419,7 +1409,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1446,7 +1436,7 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1474,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
@@ -1635,7 +1625,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1662,7 +1652,7 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1685,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -1699,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -1743,10 +1733,10 @@
         <v>74</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I9" s="5">
         <v>45588</v>
@@ -1786,13 +1776,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>45</v>
@@ -1877,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -1897,25 +1887,25 @@
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
@@ -1950,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C3FDD-7680-4418-8AEC-A564CFB89CAE}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1962,7 +1952,7 @@
     <col min="4" max="4" width="33.21875" style="16" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="16"/>
+    <col min="7" max="7" width="11.5546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="16"/>
   </cols>
@@ -1994,146 +1984,142 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="H5" s="9">
-        <v>45589</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>109</v>
+        <v>129</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H6" s="9">
-        <v>45589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="9">
-        <v>45589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>45589</v>
-      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -2232,61 +2218,61 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2294,17 +2280,17 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/tc-cocoon.xlsx
+++ b/tc-cocoon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\AutoTest\wdio_cocoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EB1F1-2C5D-4E66-822D-64658F76B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0C134-3209-42B8-A688-C780C181A334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F4D37612-19DC-43AE-A212-63B08F054381}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="138">
   <si>
     <t>Date of create:</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>display message notice that"Tên bạn nhập quá ngắn!"</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0010E40-CEB2-463A-803A-276EEB881255}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1605,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F291BD9-18D1-4E33-826A-5BEAC6733DD2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C3FDD-7680-4418-8AEC-A564CFB89CAE}">
-  <dimension ref="A4:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,149 +1960,145 @@
     <col min="9" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="14">
+        <v>45603</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="9" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H9" s="9">
         <v>45603</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="10" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H10" s="9">
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="11" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H11" s="9">
         <v>45603</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -2122,44 +2121,44 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -2201,7 +2200,53 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
